--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value820.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value820.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.6719539031408368</v>
+        <v>1.486292719841003</v>
       </c>
       <c r="B1">
-        <v>4.115645229044424</v>
+        <v>3.591972351074219</v>
       </c>
       <c r="C1">
-        <v>2.33734410287527</v>
+        <v>2.601009368896484</v>
       </c>
       <c r="D1">
-        <v>1.738110033008432</v>
+        <v>1.333489775657654</v>
       </c>
       <c r="E1">
-        <v>1.527729072220641</v>
+        <v>0.7662955522537231</v>
       </c>
     </row>
   </sheetData>
